--- a/public/attendance_file/attendance-template.xlsx
+++ b/public/attendance_file/attendance-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Desktop\laravel-hris\public\attendance_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CCDA5-277D-4040-B4D5-1F7E073BAB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D4422-F396-4B06-8452-1FD862785A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A99CA247-AE5D-4DD5-A5F5-529A717BE116}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A99CA247-AE5D-4DD5-A5F5-529A717BE116}"/>
   </bookViews>
   <sheets>
     <sheet name="ATTENDANCE" sheetId="1" r:id="rId1"/>
@@ -83,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,22 +401,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16F1966-FE3A-4B01-B5E8-3823C0DC2664}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +428,20 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20247385131097</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
